--- a/Excel/Processors.xlsx
+++ b/Excel/Processors.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Id</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>i7</t>
+  </si>
+  <si>
+    <t>ManufacturerId</t>
   </si>
 </sst>
 </file>
@@ -375,67 +378,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>1.6</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>1.8</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>150</v>
       </c>
     </row>

--- a/Excel/Processors.xlsx
+++ b/Excel/Processors.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Id</t>
   </si>
@@ -43,6 +43,42 @@
   </si>
   <si>
     <t>ManufacturerId</t>
+  </si>
+  <si>
+    <t>i3-1313</t>
+  </si>
+  <si>
+    <t>i3-1413</t>
+  </si>
+  <si>
+    <t>i5-5010</t>
+  </si>
+  <si>
+    <t>i5-6060</t>
+  </si>
+  <si>
+    <t>i7-7056</t>
+  </si>
+  <si>
+    <t>i7-7100</t>
+  </si>
+  <si>
+    <t>fx-4100</t>
+  </si>
+  <si>
+    <t>fx-4200</t>
+  </si>
+  <si>
+    <t>fx-6100</t>
+  </si>
+  <si>
+    <t>fx-6300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fx-8300 </t>
+  </si>
+  <si>
+    <t>fx-9370</t>
   </si>
 </sst>
 </file>
@@ -93,11 +129,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -378,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,7 +494,212 @@
         <v>150</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>3.4</v>
+      </c>
+      <c r="E5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>3.3</v>
+      </c>
+      <c r="E6">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>3.1</v>
+      </c>
+      <c r="E7">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>3.2</v>
+      </c>
+      <c r="E8">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>3.5</v>
+      </c>
+      <c r="E9">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10">
+        <v>3.6</v>
+      </c>
+      <c r="E10">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="E11">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="E13" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="E14" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="E15" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="E16" s="2">
+        <v>300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>